--- a/biology/Botanique/Square_Paul-Robin/Square_Paul-Robin.xlsx
+++ b/biology/Botanique/Square_Paul-Robin/Square_Paul-Robin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Paul-Robin est un espace vert du 18e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il donne sur la place Hébert et entouré par la rue Boucry, la rue de l'Évangile et la rue des Fillettes.
 Le square est accessible par le 10, place Hébert.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est ainsi nommé en hommage à Paul Robin (1837-1912), spécialiste de l'éducation.
 </t>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,10 +620,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa végétation est très diversifiée : poiriers à feuilles de saules, lilas des Indes. Les arbres sont principalement des frênes à fleurs, marronniers et cerisiers à fleurs.
-Il est équipé d'un kiosque à musique. Il a été rénové en 2016 dans le cadre de l'opération Kiosques en fête[1] et est toujours utilisé pour des événements musicaux[2].
+Il est équipé d'un kiosque à musique. Il a été rénové en 2016 dans le cadre de l'opération Kiosques en fête et est toujours utilisé pour des événements musicaux.
 </t>
         </is>
       </c>
@@ -634,9 +654,11 @@
           <t>Puits artésien</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y avait été creusé un puits artésien atteignant la nappe de l'Albien du bassin de Paris. Les travaux s'étalèrent de 1841 à 1864 pour finir en 1891 à une profondeur de 718 m[3]. Il se trouvait sous l'emplacement de l'actuel kiosque à musique[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y avait été creusé un puits artésien atteignant la nappe de l'Albien du bassin de Paris. Les travaux s'étalèrent de 1841 à 1864 pour finir en 1891 à une profondeur de 718 m. Il se trouvait sous l'emplacement de l'actuel kiosque à musique.
 La température de l'eau atteignant 30 °C, elle servit à alimenter la piscine Hébert qui ouvrit ses portes en 1893.
 À la suite de l'obstruction de ce premier puits, on en a creusé un nouveau vers 2000, dans le square de la Madone.
 </t>
